--- a/ExcelMapper.Tests/ProductsMissingHeaders.xlsx
+++ b/ExcelMapper.Tests/ProductsMissingHeaders.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\ExcelMapper\ExcelMapper.Tests\bin\Debug\net5.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\ExcelMapper\ExcelMapper.Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88222202-0901-4E04-A045-72A0512A3F7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0F2E75-CA87-4415-9D1F-FF2FF021FF6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROD" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="B3:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="B3" sqref="B3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,12 +398,14 @@
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
